--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T05:38:38+00:00</t>
+    <t>2023-08-30T09:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T09:03:20+00:00</t>
+    <t>2023-08-31T06:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T06:09:10+00:00</t>
+    <t>2023-08-31T23:08:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T23:08:19+00:00</t>
+    <t>2023-08-31T23:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T00:29:53+00:00</t>
+    <t>2023-09-02T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-02T13:01:24+00:00</t>
+    <t>2023-09-02T20:51:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-02T20:51:17+00:00</t>
+    <t>2023-09-03T01:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T01:28:46+00:00</t>
+    <t>2023-09-03T02:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T02:19:35+00:00</t>
+    <t>2023-09-03T03:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T03:04:28+00:00</t>
+    <t>2023-09-03T12:28:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T12:28:38+00:00</t>
+    <t>2023-09-03T13:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T13:26:25+00:00</t>
+    <t>2023-09-03T23:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-03T23:05:44+00:00</t>
+    <t>2023-09-04T06:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T06:22:06+00:00</t>
+    <t>2023-09-04T22:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T22:19:49+00:00</t>
+    <t>2023-09-04T23:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T23:06:43+00:00</t>
+    <t>2023-09-04T23:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T23:46:35+00:00</t>
+    <t>2023-09-05T06:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T06:17:10+00:00</t>
+    <t>2023-09-05T08:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T08:01:13+00:00</t>
+    <t>2023-09-05T14:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:46:55+00:00</t>
+    <t>2023-09-05T23:02:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T23:02:15+00:00</t>
+    <t>2023-09-06T02:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T02:44:46+00:00</t>
+    <t>2023-09-06T03:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T03:46:07+00:00</t>
+    <t>2023-09-06T04:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T04:47:55+00:00</t>
+    <t>2023-09-06T06:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T06:23:40+00:00</t>
+    <t>2023-09-06T07:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T07:07:29+00:00</t>
+    <t>2023-09-06T22:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T22:34:37+00:00</t>
+    <t>2023-09-06T23:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:38:33+00:00</t>
+    <t>2023-09-07T22:26:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T22:26:59+00:00</t>
+    <t>2023-09-07T23:26:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T23:26:53+00:00</t>
+    <t>2023-09-08T00:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T00:41:41+00:00</t>
+    <t>2023-09-08T01:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
